--- a/1Des/01-fpoo/Orçamento/OrçamentoPC.xlsx
+++ b/1Des/01-fpoo/Orçamento/OrçamentoPC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26918"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IgorH\Senai-2023\1Des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IgorH\Senai-2023\1Des\01-fpoo\Orçamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B59458-7679-40A8-A3C6-1B35BED6CE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED49E4-80E0-41E8-A158-B4F380FF6139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{64D3C55A-54B3-411B-BE01-F7F56C85C761}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Peça:</t>
   </si>
@@ -91,6 +91,32 @@
   </si>
   <si>
     <t>Projetor BenQ MS550 SVGA</t>
+  </si>
+  <si>
+    <t>SOFTWARE:</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>AutoCad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE6EDF3"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Anual</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -100,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +160,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE6EDF3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -166,6 +204,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -481,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D391BF56-6B1E-4681-A986-E32907CFEB51}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +556,7 @@
         <v>1764.7</v>
       </c>
       <c r="D2" s="5">
-        <f>B2*C2</f>
+        <f t="shared" ref="D2:D11" si="0">B2*C2</f>
         <v>3529.4</v>
       </c>
     </row>
@@ -532,7 +571,7 @@
         <v>1017.63</v>
       </c>
       <c r="D3" s="5">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>2035.26</v>
       </c>
     </row>
@@ -547,7 +586,7 @@
         <v>2352.9299999999998</v>
       </c>
       <c r="D4" s="5">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>4705.8599999999997</v>
       </c>
     </row>
@@ -562,7 +601,7 @@
         <v>279.99</v>
       </c>
       <c r="D5" s="5">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>2239.92</v>
       </c>
     </row>
@@ -577,7 +616,7 @@
         <v>2022.35</v>
       </c>
       <c r="D6" s="5">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>4044.7</v>
       </c>
     </row>
@@ -592,7 +631,7 @@
         <v>1679.99</v>
       </c>
       <c r="D7" s="5">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>3359.98</v>
       </c>
     </row>
@@ -607,7 +646,7 @@
         <v>1294</v>
       </c>
       <c r="D8" s="5">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>2588</v>
       </c>
     </row>
@@ -622,7 +661,7 @@
         <v>2076.46</v>
       </c>
       <c r="D9" s="5">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>4152.92</v>
       </c>
     </row>
@@ -637,7 +676,7 @@
         <v>835.18</v>
       </c>
       <c r="D10" s="5">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>2505.54</v>
       </c>
     </row>
@@ -652,7 +691,7 @@
         <v>147.9</v>
       </c>
       <c r="D11" s="5">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>443.70000000000005</v>
       </c>
     </row>
@@ -750,9 +789,20 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" s="5">
         <f>SUM(D21,D19,D16,D14,D12)</f>
         <v>77764.850000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
